--- a/category.xlsx
+++ b/category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/mmdetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175ED351-0556-9F48-8678-5750F26F3474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38A577-B793-F54F-9D2B-A5803049DE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{28CE5166-7DD2-4247-85B7-BE2386862629}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="170">
   <si>
     <t>bed</t>
   </si>
@@ -516,12 +516,6 @@
     <t>toothbrush</t>
   </si>
   <si>
-    <t>15-24</t>
-  </si>
-  <si>
-    <t>47-56</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -538,16 +532,26 @@
   </si>
   <si>
     <t>ADE20K Instence Segmentation</t>
+  </si>
+  <si>
+    <t>ade_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -579,12 +583,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,1406 +905,1550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD304D87-1551-3140-B9FB-1CF07C0579EC}">
-  <dimension ref="C1:I102"/>
+  <dimension ref="C1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>165</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
         <v>166</v>
       </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="F4">
+      <c r="E4">
+        <v>83</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="F7">
+      <c r="E7">
+        <v>59</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E10">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="F12">
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>103</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14">
+      <c r="K13" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="3">
+        <v>25</v>
+      </c>
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>105</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="F16">
+      <c r="E16">
+        <v>41</v>
+      </c>
+      <c r="I16">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="F17">
+      <c r="E17">
+        <v>82</v>
+      </c>
+      <c r="I17">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="F18">
+      <c r="E18">
+        <v>82</v>
+      </c>
+      <c r="I18">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="F19">
+      <c r="E19">
+        <v>82</v>
+      </c>
+      <c r="I19">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="F20">
+      <c r="E20">
+        <v>82</v>
+      </c>
+      <c r="I20">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="F21">
+      <c r="E21">
+        <v>82</v>
+      </c>
+      <c r="I21">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="F22">
+      <c r="E22">
+        <v>82</v>
+      </c>
+      <c r="I22">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>112</v>
       </c>
-      <c r="F23">
+      <c r="E23">
+        <v>82</v>
+      </c>
+      <c r="I23">
         <v>21</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
       </c>
-      <c r="F24">
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="I24">
         <v>22</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
       </c>
-      <c r="F25">
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="I25">
         <v>23</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="F26">
+      <c r="E26">
+        <v>82</v>
+      </c>
+      <c r="I26">
         <v>24</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="3">
+        <v>73</v>
+      </c>
+      <c r="I27">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>118</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>27</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="1">
+      <c r="I30" s="1">
         <v>28</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="1">
+      <c r="K30" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>29</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="1">
+      <c r="I32" s="1">
         <v>30</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K32" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>123</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>32</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
       </c>
-      <c r="F35">
+      <c r="E35">
+        <v>76</v>
+      </c>
+      <c r="I35">
         <v>33</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>34</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>35</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>36</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>128</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>37</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="1">
+      <c r="I40" s="1">
         <v>38</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="1">
+      <c r="K40" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>130</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>39</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="F42">
+      <c r="E42">
+        <v>64</v>
+      </c>
+      <c r="I42">
         <v>40</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>39</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="1">
+      <c r="I43" s="1">
         <v>41</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="1">
+      <c r="K43" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>132</v>
       </c>
-      <c r="F44">
+      <c r="I44">
         <v>42</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>43</v>
       </c>
-      <c r="G45" t="s">
+      <c r="J45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
       </c>
-      <c r="F46">
+      <c r="I46">
         <v>44</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>135</v>
       </c>
-      <c r="F47">
+      <c r="I47">
         <v>45</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="1">
+      <c r="I48" s="1">
         <v>46</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="1">
+      <c r="K48" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>47</v>
       </c>
       <c r="D49" t="s">
         <v>137</v>
       </c>
-      <c r="F49">
+      <c r="E49">
+        <v>77</v>
+      </c>
+      <c r="I49">
         <v>47</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>48</v>
       </c>
       <c r="D50" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="1">
+      <c r="E50">
+        <v>77</v>
+      </c>
+      <c r="I50" s="1">
         <v>48</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="1">
+      <c r="K50" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>139</v>
       </c>
-      <c r="F51">
+      <c r="E51">
+        <v>77</v>
+      </c>
+      <c r="I51">
         <v>49</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>140</v>
       </c>
-      <c r="F52" s="1">
+      <c r="E52">
+        <v>77</v>
+      </c>
+      <c r="I52" s="1">
         <v>50</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="1">
+      <c r="K52" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>141</v>
       </c>
-      <c r="F53">
+      <c r="E53">
+        <v>77</v>
+      </c>
+      <c r="I53">
         <v>51</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>52</v>
       </c>
       <c r="D54" t="s">
         <v>142</v>
       </c>
-      <c r="F54">
+      <c r="E54">
+        <v>77</v>
+      </c>
+      <c r="I54">
         <v>52</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>53</v>
       </c>
       <c r="D55" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="1">
+      <c r="E55">
+        <v>77</v>
+      </c>
+      <c r="I55" s="1">
         <v>53</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="1">
+      <c r="K55" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>54</v>
       </c>
       <c r="D56" t="s">
         <v>144</v>
       </c>
-      <c r="F56">
+      <c r="E56">
+        <v>77</v>
+      </c>
+      <c r="I56">
         <v>54</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>55</v>
       </c>
       <c r="D57" t="s">
         <v>145</v>
       </c>
-      <c r="F57">
+      <c r="E57">
+        <v>77</v>
+      </c>
+      <c r="I57">
         <v>55</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58" t="s">
         <v>146</v>
       </c>
-      <c r="F58">
+      <c r="E58">
+        <v>77</v>
+      </c>
+      <c r="I58">
         <v>56</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>57</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
-      <c r="F59">
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="I59">
         <v>57</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>147</v>
       </c>
-      <c r="F60">
+      <c r="E60" s="3">
+        <v>11</v>
+      </c>
+      <c r="I60">
         <v>58</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>59</v>
       </c>
       <c r="D61" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="1">
+      <c r="I61" s="1">
         <v>59</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="1">
+      <c r="K61" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>60</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>60</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>61</v>
       </c>
       <c r="D63" t="s">
         <v>149</v>
       </c>
-      <c r="F63">
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="I63">
         <v>61</v>
       </c>
-      <c r="G63" t="s">
+      <c r="J63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>62</v>
       </c>
       <c r="D64" t="s">
         <v>37</v>
       </c>
-      <c r="F64">
+      <c r="E64">
+        <v>38</v>
+      </c>
+      <c r="I64">
         <v>62</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>63</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
       </c>
-      <c r="F65">
+      <c r="E65">
+        <v>85</v>
+      </c>
+      <c r="I65">
         <v>63</v>
       </c>
-      <c r="G65" t="s">
+      <c r="J65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>64</v>
       </c>
       <c r="D66" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="1">
+      <c r="E66">
+        <v>46</v>
+      </c>
+      <c r="I66" s="1">
         <v>64</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H66" s="1">
+      <c r="K66" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>152</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>65</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>66</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>66</v>
       </c>
-      <c r="G68" t="s">
+      <c r="J68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>67</v>
       </c>
       <c r="D69" t="s">
         <v>154</v>
       </c>
-      <c r="F69">
+      <c r="I69">
         <v>67</v>
       </c>
-      <c r="G69" t="s">
+      <c r="J69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>68</v>
       </c>
       <c r="D70" t="s">
         <v>155</v>
       </c>
-      <c r="F70">
+      <c r="I70">
         <v>68</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>69</v>
       </c>
       <c r="D71" t="s">
         <v>156</v>
       </c>
-      <c r="F71">
+      <c r="E71">
+        <v>80</v>
+      </c>
+      <c r="I71">
         <v>69</v>
       </c>
-      <c r="G71" t="s">
+      <c r="J71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>70</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
       </c>
-      <c r="F72">
+      <c r="E72">
+        <v>75</v>
+      </c>
+      <c r="I72">
         <v>70</v>
       </c>
-      <c r="G72" t="s">
+      <c r="J72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>71</v>
       </c>
       <c r="D73" t="s">
         <v>157</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>71</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>72</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
-      <c r="F74">
+      <c r="E74">
+        <v>28</v>
+      </c>
+      <c r="I74">
         <v>72</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C75">
         <v>73</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
       </c>
-      <c r="F75">
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="I75">
         <v>73</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>74</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
       </c>
-      <c r="F76">
+      <c r="I76">
         <v>74</v>
       </c>
-      <c r="G76" t="s">
+      <c r="J76" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>75</v>
       </c>
       <c r="D77" t="s">
         <v>158</v>
       </c>
-      <c r="F77" s="1">
+      <c r="E77">
+        <v>99</v>
+      </c>
+      <c r="I77" s="1">
         <v>75</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H77" s="1">
+      <c r="K77" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>76</v>
       </c>
       <c r="D78" t="s">
         <v>88</v>
       </c>
-      <c r="F78" s="1">
+      <c r="E78">
+        <v>89</v>
+      </c>
+      <c r="I78" s="1">
         <v>76</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H78" s="1">
+      <c r="K78" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>77</v>
       </c>
       <c r="D79" t="s">
         <v>159</v>
       </c>
-      <c r="F79">
+      <c r="I79">
         <v>77</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>76</v>
       </c>
-      <c r="I79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>78</v>
       </c>
       <c r="D80" t="s">
         <v>160</v>
       </c>
-      <c r="F80">
+      <c r="I80">
         <v>78</v>
       </c>
-      <c r="G80" t="s">
+      <c r="J80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>79</v>
       </c>
       <c r="D81" t="s">
         <v>161</v>
       </c>
-      <c r="F81">
+      <c r="I81">
         <v>79</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>80</v>
       </c>
       <c r="D82" t="s">
         <v>162</v>
       </c>
-      <c r="F82" s="1">
+      <c r="I82" s="1">
         <v>80</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H82" s="1">
+      <c r="K82" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F83">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I83">
         <v>81</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F84">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I84">
         <v>82</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>81</v>
       </c>
-      <c r="I84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F85" s="1">
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I85" s="1">
         <v>83</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H85" s="1">
+      <c r="K85" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F86">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I86">
         <v>84</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F87" s="1">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I87" s="1">
         <v>85</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H87" s="1">
+      <c r="K87" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F88">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I88">
         <v>86</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F89">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I89">
         <v>87</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F90">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I90">
         <v>88</v>
       </c>
-      <c r="G90" t="s">
+      <c r="J90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F91" s="1">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I91" s="1">
         <v>89</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H91" s="1">
+      <c r="K91" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F92" s="1">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I92" s="1">
         <v>90</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H92" s="1">
+      <c r="K92" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F93">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I93">
         <v>91</v>
       </c>
-      <c r="G93" t="s">
+      <c r="J93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F94">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I94">
         <v>92</v>
       </c>
-      <c r="G94" t="s">
+      <c r="J94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F95">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I95">
         <v>93</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F96">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I96">
         <v>94</v>
       </c>
-      <c r="G96" t="s">
+      <c r="J96" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F97">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I97">
         <v>95</v>
       </c>
-      <c r="G97" t="s">
+      <c r="J97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F98">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I98">
         <v>96</v>
       </c>
-      <c r="G98" t="s">
+      <c r="J98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F99">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I99">
         <v>97</v>
       </c>
-      <c r="G99" t="s">
+      <c r="J99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F100">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I100">
         <v>98</v>
       </c>
-      <c r="G100" t="s">
+      <c r="J100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F101" s="1">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I101" s="1">
         <v>99</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H101" s="1">
+      <c r="K101" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F102">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I102">
         <v>100</v>
       </c>
-      <c r="G102" t="s">
+      <c r="J102" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/category.xlsx
+++ b/category.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/mmdetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38A577-B793-F54F-9D2B-A5803049DE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B359B9D-79EA-B64E-8F1C-A7E89AC9D7F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{28CE5166-7DD2-4247-85B7-BE2386862629}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -541,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,7 +552,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,14 +598,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD304D87-1551-3140-B9FB-1CF07C0579EC}">
-  <dimension ref="C1:K102"/>
+  <dimension ref="C1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,7 +933,7 @@
     <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>167</v>
       </c>
@@ -926,7 +943,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>163</v>
       </c>
@@ -946,7 +963,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>1</v>
       </c>
@@ -965,8 +982,14 @@
       <c r="K3" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>2</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="J4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>3</v>
       </c>
@@ -999,14 +1025,20 @@
       <c r="J5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>100</v>
       </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
@@ -1016,8 +1048,14 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>5</v>
       </c>
@@ -1033,8 +1071,11 @@
       <c r="J7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>6</v>
       </c>
@@ -1053,22 +1094,34 @@
       <c r="K8" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
       </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>7</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>8</v>
       </c>
@@ -1087,8 +1140,14 @@
       <c r="K10" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P10" s="1">
+        <v>8</v>
+      </c>
+      <c r="R10" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>9</v>
       </c>
@@ -1107,8 +1166,14 @@
       <c r="K11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P11" s="1">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>10</v>
       </c>
@@ -1124,14 +1189,20 @@
       <c r="J12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>103</v>
       </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>11</v>
       </c>
@@ -1141,8 +1212,15 @@
       <c r="K13" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="R13" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>12</v>
       </c>
@@ -1158,22 +1236,31 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>105</v>
       </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>14</v>
       </c>
@@ -1189,15 +1276,18 @@
       <c r="J16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>82</v>
       </c>
       <c r="I17">
@@ -1206,15 +1296,18 @@
       <c r="J17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>82</v>
       </c>
       <c r="I18">
@@ -1223,15 +1316,18 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>82</v>
       </c>
       <c r="I19">
@@ -1240,15 +1336,18 @@
       <c r="J19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>82</v>
       </c>
       <c r="I20">
@@ -1257,15 +1356,18 @@
       <c r="J20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>82</v>
       </c>
       <c r="I21">
@@ -1274,15 +1376,18 @@
       <c r="J21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>82</v>
       </c>
       <c r="I22">
@@ -1291,15 +1396,18 @@
       <c r="J22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>112</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>82</v>
       </c>
       <c r="I23">
@@ -1308,15 +1416,18 @@
       <c r="J23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>82</v>
       </c>
       <c r="I24">
@@ -1325,15 +1436,18 @@
       <c r="J24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>82</v>
       </c>
       <c r="I25">
@@ -1342,15 +1456,18 @@
       <c r="J25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>82</v>
       </c>
       <c r="I26">
@@ -1359,8 +1476,12 @@
       <c r="J26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+      <c r="P26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>25</v>
       </c>
@@ -1379,42 +1500,63 @@
       <c r="K27" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>25</v>
+      </c>
+      <c r="R27" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>117</v>
       </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
       <c r="I28">
         <v>26</v>
       </c>
       <c r="J28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>118</v>
       </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
       <c r="I29">
         <v>27</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>119</v>
       </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
       <c r="I30" s="1">
         <v>28</v>
       </c>
@@ -1424,28 +1566,43 @@
       <c r="K30" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P30" s="1">
+        <v>28</v>
+      </c>
+      <c r="R30" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>120</v>
       </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
       <c r="I31">
         <v>29</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>121</v>
       </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
       <c r="I32" s="1">
         <v>30</v>
       </c>
@@ -1455,36 +1612,54 @@
       <c r="K32" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P32" s="1">
+        <v>30</v>
+      </c>
+      <c r="R32" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
       </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
       <c r="I33">
         <v>31</v>
       </c>
       <c r="J33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>123</v>
       </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
       <c r="I34">
         <v>32</v>
       </c>
       <c r="J34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>33</v>
       </c>
@@ -1500,70 +1675,100 @@
       <c r="J35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
       </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
       <c r="I36">
         <v>34</v>
       </c>
       <c r="J36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>126</v>
       </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
       <c r="I37">
         <v>35</v>
       </c>
       <c r="J37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
       </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
       <c r="I38">
         <v>36</v>
       </c>
       <c r="J38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>128</v>
       </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
       <c r="I39">
         <v>37</v>
       </c>
       <c r="J39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>129</v>
       </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
       <c r="I40" s="1">
         <v>38</v>
       </c>
@@ -1573,22 +1778,34 @@
       <c r="K40" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P40" s="1">
+        <v>38</v>
+      </c>
+      <c r="R40" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>130</v>
       </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
       <c r="I41">
         <v>39</v>
       </c>
       <c r="J41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>40</v>
       </c>
@@ -1607,14 +1824,23 @@
       <c r="K42">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>40</v>
+      </c>
+      <c r="R42">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>131</v>
       </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
       <c r="I43" s="1">
         <v>41</v>
       </c>
@@ -1624,70 +1850,103 @@
       <c r="K43" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P43" s="1">
+        <v>41</v>
+      </c>
+      <c r="R43" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>132</v>
       </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
       <c r="I44">
         <v>42</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
       </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
       <c r="I45">
         <v>43</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
       </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
       <c r="I46">
         <v>44</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>135</v>
       </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
       <c r="I47">
         <v>45</v>
       </c>
       <c r="J47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>136</v>
       </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
       <c r="I48" s="1">
         <v>46</v>
       </c>
@@ -1697,15 +1956,21 @@
       <c r="K48" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P48" s="1">
+        <v>46</v>
+      </c>
+      <c r="R48" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>47</v>
       </c>
       <c r="D49" t="s">
         <v>137</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="6">
         <v>77</v>
       </c>
       <c r="I49">
@@ -1714,15 +1979,18 @@
       <c r="J49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>48</v>
       </c>
       <c r="D50" t="s">
         <v>138</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="6">
         <v>77</v>
       </c>
       <c r="I50" s="1">
@@ -1734,15 +2002,21 @@
       <c r="K50" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P50" s="1">
+        <v>48</v>
+      </c>
+      <c r="R50" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>139</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="6">
         <v>77</v>
       </c>
       <c r="I51">
@@ -1751,15 +2025,18 @@
       <c r="J51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>140</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="6">
         <v>77</v>
       </c>
       <c r="I52" s="1">
@@ -1771,15 +2048,21 @@
       <c r="K52" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P52" s="1">
+        <v>50</v>
+      </c>
+      <c r="R52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>141</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
         <v>77</v>
       </c>
       <c r="I53">
@@ -1788,15 +2071,18 @@
       <c r="J53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>52</v>
       </c>
       <c r="D54" t="s">
         <v>142</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="6">
         <v>77</v>
       </c>
       <c r="I54">
@@ -1805,15 +2091,18 @@
       <c r="J54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>53</v>
       </c>
       <c r="D55" t="s">
         <v>143</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="6">
         <v>77</v>
       </c>
       <c r="I55" s="1">
@@ -1825,15 +2114,21 @@
       <c r="K55" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P55" s="1">
+        <v>53</v>
+      </c>
+      <c r="R55" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>54</v>
       </c>
       <c r="D56" t="s">
         <v>144</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="6">
         <v>77</v>
       </c>
       <c r="I56">
@@ -1842,15 +2137,18 @@
       <c r="J56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>55</v>
       </c>
       <c r="D57" t="s">
         <v>145</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="6">
         <v>77</v>
       </c>
       <c r="I57">
@@ -1859,15 +2157,18 @@
       <c r="J57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58" t="s">
         <v>146</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="6">
         <v>77</v>
       </c>
       <c r="I58">
@@ -1876,8 +2177,11 @@
       <c r="J58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>57</v>
       </c>
@@ -1893,8 +2197,11 @@
       <c r="J59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>58</v>
       </c>
@@ -1910,14 +2217,20 @@
       <c r="J60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>59</v>
       </c>
       <c r="D61" t="s">
         <v>148</v>
       </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
       <c r="I61" s="1">
         <v>59</v>
       </c>
@@ -1927,8 +2240,14 @@
       <c r="K61" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P61" s="1">
+        <v>59</v>
+      </c>
+      <c r="R61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>60</v>
       </c>
@@ -1944,8 +2263,11 @@
       <c r="J62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>61</v>
       </c>
@@ -1961,8 +2283,11 @@
       <c r="J63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>62</v>
       </c>
@@ -1978,8 +2303,11 @@
       <c r="J64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>63</v>
       </c>
@@ -1995,8 +2323,11 @@
       <c r="J65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>64</v>
       </c>
@@ -2015,64 +2346,94 @@
       <c r="K66" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P66" s="1">
+        <v>64</v>
+      </c>
+      <c r="R66" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>152</v>
       </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
       <c r="I67">
         <v>65</v>
       </c>
       <c r="J67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>66</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
       </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
       <c r="I68">
         <v>66</v>
       </c>
       <c r="J68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>67</v>
       </c>
       <c r="D69" t="s">
         <v>154</v>
       </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
       <c r="I69">
         <v>67</v>
       </c>
       <c r="J69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>68</v>
       </c>
       <c r="D70" t="s">
         <v>155</v>
       </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
       <c r="I70">
         <v>68</v>
       </c>
       <c r="J70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>69</v>
       </c>
@@ -2088,8 +2449,11 @@
       <c r="J71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>70</v>
       </c>
@@ -2105,22 +2469,31 @@
       <c r="J72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>71</v>
       </c>
       <c r="D73" t="s">
         <v>157</v>
       </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
       <c r="I73">
         <v>71</v>
       </c>
       <c r="J73" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>72</v>
       </c>
@@ -2136,8 +2509,11 @@
       <c r="J74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C75">
         <v>73</v>
       </c>
@@ -2156,22 +2532,34 @@
       <c r="K75" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <v>73</v>
+      </c>
+      <c r="R75" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>74</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
       </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
       <c r="I76">
         <v>74</v>
       </c>
       <c r="J76" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>75</v>
       </c>
@@ -2190,8 +2578,14 @@
       <c r="K77" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P77" s="1">
+        <v>75</v>
+      </c>
+      <c r="R77" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>76</v>
       </c>
@@ -2210,56 +2604,83 @@
       <c r="K78" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P78" s="1">
+        <v>76</v>
+      </c>
+      <c r="R78" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>77</v>
       </c>
       <c r="D79" t="s">
         <v>159</v>
       </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
       <c r="I79">
         <v>77</v>
       </c>
       <c r="J79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>78</v>
       </c>
       <c r="D80" t="s">
         <v>160</v>
       </c>
+      <c r="E80" s="5">
+        <v>0</v>
+      </c>
       <c r="I80">
         <v>78</v>
       </c>
       <c r="J80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>79</v>
       </c>
       <c r="D81" t="s">
         <v>161</v>
       </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
       <c r="I81">
         <v>79</v>
       </c>
       <c r="J81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>80</v>
       </c>
       <c r="D82" t="s">
         <v>162</v>
       </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
       <c r="I82" s="1">
         <v>80</v>
       </c>
@@ -2269,24 +2690,36 @@
       <c r="K82" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P82" s="1">
+        <v>80</v>
+      </c>
+      <c r="R82" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I83">
         <v>81</v>
       </c>
       <c r="J83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I84">
         <v>82</v>
       </c>
       <c r="J84" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I85" s="1">
         <v>83</v>
       </c>
@@ -2296,16 +2729,25 @@
       <c r="K85" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P85" s="1">
+        <v>83</v>
+      </c>
+      <c r="R85" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I86">
         <v>84</v>
       </c>
       <c r="J86" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I87" s="1">
         <v>85</v>
       </c>
@@ -2315,32 +2757,47 @@
       <c r="K87" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P87" s="1">
+        <v>85</v>
+      </c>
+      <c r="R87" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I88">
         <v>86</v>
       </c>
       <c r="J88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I89">
         <v>87</v>
       </c>
       <c r="J89" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I90">
         <v>88</v>
       </c>
       <c r="J90" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I91" s="1">
         <v>89</v>
       </c>
@@ -2350,8 +2807,14 @@
       <c r="K91" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P91" s="1">
+        <v>89</v>
+      </c>
+      <c r="R91" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I92" s="1">
         <v>90</v>
       </c>
@@ -2361,72 +2824,102 @@
       <c r="K92" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P92" s="1">
+        <v>90</v>
+      </c>
+      <c r="R92" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I93">
         <v>91</v>
       </c>
       <c r="J93" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I94">
         <v>92</v>
       </c>
       <c r="J94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I95">
         <v>93</v>
       </c>
       <c r="J95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I96">
         <v>94</v>
       </c>
       <c r="J96" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I97">
         <v>95</v>
       </c>
       <c r="J97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="P97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I98">
         <v>96</v>
       </c>
       <c r="J98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I99">
         <v>97</v>
       </c>
       <c r="J99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I100">
         <v>98</v>
       </c>
       <c r="J100" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I101" s="1">
         <v>99</v>
       </c>
@@ -2436,13 +2929,22 @@
       <c r="K101" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="P101" s="1">
+        <v>99</v>
+      </c>
+      <c r="R101" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I102">
         <v>100</v>
       </c>
       <c r="J102" t="s">
         <v>99</v>
+      </c>
+      <c r="P102">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2453,4 +2955,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F86C59F-EAA7-CA4B-9367-B9AE46C8E244}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>